--- a/board/bom/bom.xlsx
+++ b/board/bom/bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\TTU\summer23\project-lab-4\iCEGenius\board\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63886835-0435-4FB0-9021-3A92A1A9A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC243B-4E04-45E7-B06A-16936D46CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,12 +216,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>998-MIC5528-3.3YMTT5</t>
-  </si>
-  <si>
-    <t>MIC5528-3.3YMT-T5</t>
-  </si>
-  <si>
     <t>ASFL1-100.000MHZ-L-T</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>Savings from v1</t>
+  </si>
+  <si>
+    <t>755-BU33SD5WG-TR</t>
+  </si>
+  <si>
+    <t>BU33SD5WG-TR</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +659,7 @@
         <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -668,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E20" si="0">C2*D2</f>
         <v>2.17</v>
       </c>
       <c r="F2" t="s">
@@ -696,7 +696,7 @@
       </c>
       <c r="G2" s="3">
         <f>G5*H2</f>
-        <v>38.999999999999993</v>
+        <v>39.689999999999991</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
       <c r="F3" t="s">
@@ -725,26 +725,26 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f>C4*D4</f>
-        <v>0.21</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
       <c r="F5" t="s">
@@ -769,7 +769,7 @@
       </c>
       <c r="G5" s="2">
         <f>SUM(E2:E37)</f>
-        <v>12.999999999999998</v>
+        <v>13.229999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F6" t="s">
@@ -807,22 +807,22 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2">
         <v>1.75</v>
@@ -831,23 +831,23 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="4">
         <f>1-(G5/'v1'!G2)</f>
-        <v>8.5794655414908605E-2</v>
+        <v>6.9620253164557111E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2">
         <v>2.83</v>
@@ -856,11 +856,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>2.83</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -874,11 +874,11 @@
         <v>0.04</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
-        <f>C10*D10</f>
-        <v>0.64</v>
+        <f t="shared" si="0"/>
+        <v>0.48</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F11" t="s">
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F12" t="s">
@@ -940,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F13" t="s">
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="2">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
       <c r="F14" t="s">
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F15" t="s">
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
       <c r="F16" t="s">
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="F17" t="s">
@@ -1033,10 +1033,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2">
         <v>0.12</v>
@@ -1045,19 +1045,19 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2">
         <v>0.1</v>
@@ -1066,19 +1066,19 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2">
         <v>0.45</v>
@@ -1087,15 +1087,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="2">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1131,7 +1132,7 @@
         <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1140,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -1158,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E21" si="0">C2*D2</f>
         <v>2.17</v>
       </c>
       <c r="F2" t="s">
@@ -1184,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
       <c r="F3" t="s">
@@ -1205,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="F4" t="s">
@@ -1226,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F5" t="s">
@@ -1247,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
       <c r="F6" t="s">
@@ -1268,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
@@ -1289,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
       <c r="F8" t="s">
@@ -1310,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>3.62</v>
       </c>
       <c r="F9" t="s">
@@ -1331,7 +1332,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="2">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="F10" t="s">
@@ -1352,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="2">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F11" t="s">
@@ -1373,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F12" t="s">
@@ -1394,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="2">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F13" t="s">
@@ -1415,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="2">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="F14" t="s">
@@ -1436,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="2">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" t="s">
@@ -1457,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="2">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="F16" t="s">
@@ -1478,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="F17" t="s">
@@ -1499,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
       <c r="F18" t="s">
@@ -1520,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="F19" t="s">
@@ -1529,10 +1530,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2">
         <v>0.45</v>
@@ -1541,16 +1542,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="2">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2">
         <v>1.87</v>
@@ -1559,11 +1560,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="2">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>1.87</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/board/bom/bom.xlsx
+++ b/board/bom/bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\TTU\summer23\project-lab-4\iCEGenius\board\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC243B-4E04-45E7-B06A-16936D46CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB001C92-EE87-4061-B437-4DF7468594B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
